--- a/data/matlab-sims-rff-12.xlsx
+++ b/data/matlab-sims-rff-12.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://denveru-my.sharepoint.com/personal/ryan_elmore_du_edu/Documents/research/VoC/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="8_{04F87392-33E6-6C43-BA9B-4DFEE7D9FA40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6CBB0067-BE5E-9D4B-B2CD-DFC33CC98D92}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="8_{04F87392-33E6-6C43-BA9B-4DFEE7D9FA40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8E0D495C-E439-FE4A-B5EF-4C229BEDDE26}"/>
   <bookViews>
-    <workbookView xWindow="23420" yWindow="10360" windowWidth="28040" windowHeight="17440" xr2:uid="{D712475C-032A-5040-82BA-98C75D878B8E}"/>
+    <workbookView xWindow="1360" yWindow="1200" windowWidth="28040" windowHeight="17440" xr2:uid="{D712475C-032A-5040-82BA-98C75D878B8E}"/>
   </bookViews>
   <sheets>
     <sheet name="matlab-sims-rff-12" sheetId="1" r:id="rId1"/>
@@ -927,8 +927,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAFD192F-02DD-F747-B486-47C05510F066}">
   <dimension ref="A1:Z1093"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H216" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="S242" sqref="S242"/>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="C825" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C1" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="O845" sqref="O845"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
